--- a/Jogos_do_Dia/2023-09-13_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-13_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>League</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Chile Primera División</t>
   </si>
   <si>
+    <t>Brazil Serie A</t>
+  </si>
+  <si>
     <t>15:45:00</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Bala Town</t>
   </si>
   <si>
@@ -154,6 +160,12 @@
     <t>Sarmiento</t>
   </si>
   <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
     <t>The New Saints</t>
   </si>
   <si>
@@ -164,6 +176,12 @@
   </si>
   <si>
     <t>Central Córdoba SdE</t>
+  </si>
+  <si>
+    <t>Atlético PR</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
   </si>
 </sst>
 </file>
@@ -525,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,16 +664,16 @@
         <v>45182</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>6.15</v>
@@ -753,16 +771,16 @@
         <v>45182</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>2.8</v>
@@ -860,25 +878,25 @@
         <v>45182</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="H4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I4">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="J4">
         <v>1.06</v>
@@ -893,10 +911,10 @@
         <v>3.2</v>
       </c>
       <c r="N4">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="O4">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -967,16 +985,16 @@
         <v>45182</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>2.1</v>
@@ -1064,6 +1082,220 @@
       </c>
       <c r="AI5">
         <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6">
+        <v>1.87</v>
+      </c>
+      <c r="H6">
+        <v>3.6</v>
+      </c>
+      <c r="I6">
+        <v>3.75</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.96</v>
+      </c>
+      <c r="O6">
+        <v>1.9</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1.8</v>
+      </c>
+      <c r="S6">
+        <v>1.95</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1.9</v>
+      </c>
+      <c r="X6">
+        <v>0.9</v>
+      </c>
+      <c r="Y6">
+        <v>1.86</v>
+      </c>
+      <c r="Z6">
+        <v>1.26</v>
+      </c>
+      <c r="AA6">
+        <v>3.12</v>
+      </c>
+      <c r="AB6">
+        <v>1.49</v>
+      </c>
+      <c r="AC6">
+        <v>8.5</v>
+      </c>
+      <c r="AD6">
+        <v>3.1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1.83</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7">
+        <v>2.2</v>
+      </c>
+      <c r="H7">
+        <v>3.05</v>
+      </c>
+      <c r="I7">
+        <v>3.25</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2.35</v>
+      </c>
+      <c r="O7">
+        <v>1.48</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>2.1</v>
+      </c>
+      <c r="S7">
+        <v>1.67</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1.5</v>
+      </c>
+      <c r="X7">
+        <v>0.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.54</v>
+      </c>
+      <c r="Z7">
+        <v>1.46</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>1.76</v>
+      </c>
+      <c r="AC7">
+        <v>8</v>
+      </c>
+      <c r="AD7">
+        <v>2.35</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
